--- a/data/literacy_230925.xlsx
+++ b/data/literacy_230925.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC759A70-80AD-8744-9FF5-FCCF70A1085D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A03BC0-9F7D-C347-9598-AEBDF12D7523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34400" yWindow="760" windowWidth="34020" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="528">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1352,6 +1352,259 @@
   </si>
   <si>
     <t>인공지능융합학부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jw011400@naver.com</t>
+  </si>
+  <si>
+    <t>안정우</t>
+  </si>
+  <si>
+    <t>cyurim3@gmail.com</t>
+  </si>
+  <si>
+    <t>최유림</t>
+  </si>
+  <si>
+    <t>a40432708@gmail.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>rlaeogus0704@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>bluejjun619@naver.com</t>
+  </si>
+  <si>
+    <t>윤영준</t>
+  </si>
+  <si>
+    <t>se0870@naver.com</t>
+  </si>
+  <si>
+    <t>미디어스쿨</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>jungjukim0227@gmail.com</t>
+  </si>
+  <si>
+    <t>김정주</t>
+  </si>
+  <si>
+    <t>rjsdnjs0711@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>서건원</t>
+  </si>
+  <si>
+    <t>ohj09170@naver.com</t>
+  </si>
+  <si>
+    <t>오현진</t>
+  </si>
+  <si>
+    <t>blleuey@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>bsihyeon0707@gmail.com</t>
+  </si>
+  <si>
+    <t>박시현</t>
+  </si>
+  <si>
+    <t>urica45642@gmail.com</t>
+  </si>
+  <si>
+    <t>유시현</t>
+  </si>
+  <si>
+    <t>tlswnals04@naver.com</t>
+  </si>
+  <si>
+    <t>신주민</t>
+  </si>
+  <si>
+    <t>rcn214@naver.com</t>
+  </si>
+  <si>
+    <t>김제승</t>
+  </si>
+  <si>
+    <t>kwangsik04@naver.com</t>
+  </si>
+  <si>
+    <t>성광식</t>
+  </si>
+  <si>
+    <t>k00e0096@naver.com</t>
+  </si>
+  <si>
+    <t>임민지</t>
+  </si>
+  <si>
+    <t>choims9064@gmail.com</t>
+  </si>
+  <si>
+    <t>최민서</t>
+  </si>
+  <si>
+    <t>ckckguswns@naver.com</t>
+  </si>
+  <si>
+    <t>사회학과</t>
+  </si>
+  <si>
+    <t>차현준</t>
+  </si>
+  <si>
+    <t>rhguswo324@naver.com</t>
+  </si>
+  <si>
+    <t>고현재</t>
+  </si>
+  <si>
+    <t>citchchache@gmail.com</t>
+  </si>
+  <si>
+    <t>공병우</t>
+  </si>
+  <si>
+    <t>csk331400@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 생명과학과</t>
+  </si>
+  <si>
+    <t>장승규</t>
+  </si>
+  <si>
+    <t>lsjlol1264@naver.com</t>
+  </si>
+  <si>
+    <t>이세진</t>
+  </si>
+  <si>
+    <t>lia129@naver.com</t>
+  </si>
+  <si>
+    <t>노효은</t>
+  </si>
+  <si>
+    <t>pjw4063@naver.com</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>1. 권찬기 씨와 김서경 씨가 결혼한다.</t>
+  </si>
+  <si>
+    <t>ksrkatie@naver.com</t>
+  </si>
+  <si>
+    <t>권소린</t>
+  </si>
+  <si>
+    <t>4. 창문이 잘 닫혔는지 확인한다</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>impact0219@naver.com</t>
+  </si>
+  <si>
+    <t>김서언</t>
+  </si>
+  <si>
+    <t>zo267869@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 경영학과</t>
+  </si>
+  <si>
+    <t>황태용</t>
+  </si>
+  <si>
+    <t>ub030801@naver.com</t>
+  </si>
+  <si>
+    <t>신유빈</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>dyseo0303@gmail.com</t>
+  </si>
+  <si>
+    <t>서동영</t>
+  </si>
+  <si>
+    <t>kq872@naver.com</t>
+  </si>
+  <si>
+    <t>이원상</t>
+  </si>
+  <si>
+    <t>chlgpals2507@naver.com</t>
+  </si>
+  <si>
+    <t>최혜민</t>
+  </si>
+  <si>
+    <t>kkj20040117@gmail.com</t>
+  </si>
+  <si>
+    <t>권경진</t>
+  </si>
+  <si>
+    <t>molly7624@naver.com</t>
+  </si>
+  <si>
+    <t>변재은</t>
+  </si>
+  <si>
+    <t>sdg93712426@gmail.com</t>
+  </si>
+  <si>
+    <t>신동건</t>
+  </si>
+  <si>
+    <t>cheeseru0808@naver.com</t>
+  </si>
+  <si>
+    <t>인문학과</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>소프트웨어학부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1626,11 +1879,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD135"/>
+  <dimension ref="A1:AD172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F146" sqref="F146"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14058,6 +14311,3410 @@
         <v>56</v>
       </c>
     </row>
+    <row r="136" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2">
+        <v>45195.717287789354</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" s="1">
+        <v>20235202</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F136" s="1">
+        <v>3</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T136" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U136" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V136" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W136" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X136" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y136" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z136" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA136" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB136" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC136" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD136" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="2">
+        <v>45195.721966099532</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D137" s="1">
+        <v>20222143</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F137" s="1">
+        <v>3</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T137" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U137" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V137" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W137" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X137" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y137" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z137" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA137" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB137" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC137" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD137" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="2">
+        <v>45195.722658252314</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D138" s="1">
+        <v>20191218</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F138" s="1">
+        <v>3</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T138" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U138" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V138" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W138" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X138" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y138" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z138" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA138" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB138" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC138" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD138" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="2">
+        <v>45195.73470833333</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D139" s="1">
+        <v>20193604</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F139" s="1">
+        <v>3</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T139" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U139" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V139" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W139" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X139" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y139" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z139" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA139" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB139" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC139" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD139" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2">
+        <v>45195.74100282407</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D140" s="1">
+        <v>20226758</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F140" s="1">
+        <v>3</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R140" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T140" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U140" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V140" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W140" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X140" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y140" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z140" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA140" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB140" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC140" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD140" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2">
+        <v>45195.741848900463</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D141" s="1">
+        <v>20232563</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F141" s="1">
+        <v>3</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R141" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S141" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T141" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U141" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V141" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W141" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y141" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA141" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB141" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC141" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD141" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="2">
+        <v>45195.758060578708</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D142" s="1">
+        <v>20232318</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F142" s="1">
+        <v>3</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T142" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U142" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V142" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W142" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X142" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y142" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z142" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA142" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB142" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC142" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD142" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="2">
+        <v>45195.760667002316</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D143" s="1">
+        <v>20223324</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F143" s="1">
+        <v>3</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S143" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T143" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U143" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V143" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W143" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X143" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y143" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z143" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA143" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB143" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC143" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD143" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2">
+        <v>45195.762722372689</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D144" s="1">
+        <v>20232555</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F144" s="1">
+        <v>3</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T144" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U144" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V144" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W144" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X144" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y144" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z144" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA144" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB144" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC144" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD144" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2">
+        <v>45195.817602187497</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D145" s="1">
+        <v>20203235</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F145" s="1">
+        <v>3</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T145" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U145" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V145" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X145" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y145" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z145" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA145" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB145" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC145" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD145" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="2">
+        <v>45195.824062118059</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D146" s="1">
+        <v>20235167</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F146" s="1">
+        <v>3</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T146" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U146" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V146" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W146" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y146" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z146" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA146" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB146" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC146" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD146" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="2">
+        <v>45195.861056365742</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D147" s="1">
+        <v>20235215</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F147" s="1">
+        <v>3</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T147" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U147" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W147" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X147" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y147" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z147" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA147" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB147" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC147" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD147" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="2">
+        <v>45195.864023587965</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20236740</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F148" s="1">
+        <v>3</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T148" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U148" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V148" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W148" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X148" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y148" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z148" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA148" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB148" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC148" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD148" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2">
+        <v>45195.878734942133</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D149" s="1">
+        <v>20232932</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F149" s="1">
+        <v>3</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q149" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S149" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T149" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U149" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V149" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W149" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X149" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y149" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z149" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA149" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB149" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC149" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD149" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
+        <v>45195.881476921291</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D150" s="1">
+        <v>20233619</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F150" s="1">
+        <v>3</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S150" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T150" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U150" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V150" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X150" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y150" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z150" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA150" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB150" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC150" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD150" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2">
+        <v>45195.890110613429</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D151" s="1">
+        <v>20202355</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F151" s="1">
+        <v>3</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T151" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U151" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V151" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X151" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y151" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z151" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA151" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB151" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC151" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD151" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2">
+        <v>45195.904874849541</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D152" s="1">
+        <v>20236297</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F152" s="1">
+        <v>3</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T152" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V152" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X152" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y152" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z152" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA152" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB152" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC152" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD152" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2">
+        <v>45195.913655949073</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D153" s="1">
+        <v>20192233</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F153" s="1">
+        <v>3</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T153" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U153" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V153" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W153" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X153" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y153" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z153" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA153" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB153" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC153" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD153" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2">
+        <v>45195.9172841088</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D154" s="1">
+        <v>20183604</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F154" s="1">
+        <v>3</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T154" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U154" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V154" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W154" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X154" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y154" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z154" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA154" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB154" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC154" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD154" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2">
+        <v>45195.91978030093</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D155" s="1">
+        <v>20235111</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F155" s="1">
+        <v>3</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V155" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W155" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X155" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y155" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z155" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA155" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB155" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC155" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD155" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="2">
+        <v>45195.933143414353</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D156" s="1">
+        <v>20203536</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F156" s="1">
+        <v>3</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V156" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X156" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y156" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z156" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA156" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC156" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD156" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="2">
+        <v>45195.94609445602</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D157" s="1">
+        <v>20182941</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F157" s="1">
+        <v>3</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T157" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V157" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W157" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X157" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y157" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z157" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA157" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB157" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC157" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD157" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="2">
+        <v>45195.963433182871</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D158" s="1">
+        <v>20232716</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F158" s="1">
+        <v>3</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T158" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V158" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W158" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X158" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y158" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z158" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA158" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB158" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC158" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD158" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="2">
+        <v>45195.9711975463</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D159" s="1">
+        <v>20233410</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F159" s="1">
+        <v>3</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T159" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U159" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V159" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W159" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X159" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y159" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z159" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA159" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB159" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC159" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD159" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="2">
+        <v>45195.992508668976</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D160" s="1">
+        <v>20231004</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F160" s="1">
+        <v>2</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T160" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U160" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V160" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W160" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X160" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y160" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z160" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA160" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB160" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC160" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD160" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="2">
+        <v>45195.997751550924</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D161" s="1">
+        <v>20232706</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F161" s="1">
+        <v>3</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V161" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W161" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z161" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA161" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB161" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC161" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD161" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="2">
+        <v>45196.001873344911</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D162" s="1">
+        <v>20236218</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F162" s="1">
+        <v>3</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T162" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U162" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V162" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W162" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X162" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y162" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z162" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA162" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB162" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC162" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD162" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="2">
+        <v>45196.007276886579</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D163" s="1">
+        <v>20197092</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F163" s="1">
+        <v>3</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V163" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W163" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X163" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y163" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z163" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA163" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB163" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC163" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD163" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="2">
+        <v>45196.022013530091</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D164" s="1">
+        <v>20226256</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F164" s="1">
+        <v>3</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T164" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U164" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V164" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W164" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X164" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y164" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z164" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA164" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC164" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD164" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="2">
+        <v>45196.022198495368</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D165" s="1">
+        <v>20223047</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F165" s="1">
+        <v>3</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T165" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U165" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V165" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W165" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X165" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y165" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z165" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA165" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB165" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC165" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD165" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="2">
+        <v>45196.026180393514</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D166" s="1">
+        <v>20235182</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F166" s="1">
+        <v>3</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U166" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V166" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W166" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X166" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y166" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z166" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA166" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB166" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC166" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD166" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="2">
+        <v>45196.041752986115</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D167" s="1">
+        <v>20193531</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F167" s="1">
+        <v>3</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T167" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U167" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W167" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X167" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y167" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z167" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA167" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB167" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC167" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD167" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="2">
+        <v>45196.131132662034</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D168" s="1">
+        <v>20181735</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F168" s="1">
+        <v>3</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U168" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V168" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X168" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y168" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z168" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA168" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB168" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC168" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD168" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="2">
+        <v>45196.175274699075</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D169" s="1">
+        <v>20236206</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F169" s="1">
+        <v>3</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V169" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W169" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X169" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y169" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z169" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA169" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB169" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC169" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD169" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="2">
+        <v>45196.232777557874</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D170" s="1">
+        <v>20211516</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F170" s="1">
+        <v>3</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V170" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W170" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y170" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z170" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA170" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB170" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC170" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD170" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="2">
+        <v>45196.237125277781</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D171" s="1">
+        <v>20233322</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F171" s="1">
+        <v>3</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W171" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X171" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y171" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z171" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA171" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB171" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC171" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD171" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="2">
+        <v>45196.327644537036</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D172" s="1">
+        <v>20201606</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F172" s="1">
+        <v>3</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V172" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W172" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y172" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z172" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA172" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC172" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD172" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/literacy_230925.xlsx
+++ b/data/literacy_230925.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A03BC0-9F7D-C347-9598-AEBDF12D7523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14DB3DC-7504-B041-815C-5A60E7170CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34400" yWindow="760" windowWidth="34020" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36480" yWindow="600" windowWidth="34020" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5268" uniqueCount="574">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1606,6 +1606,144 @@
   <si>
     <t>소프트웨어학부</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sallylee12300@gmail.com</t>
+  </si>
+  <si>
+    <t>이상은</t>
+  </si>
+  <si>
+    <t>asd1231077@naver.com</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>mys714@naver.com</t>
+  </si>
+  <si>
+    <t>문예슬</t>
+  </si>
+  <si>
+    <t>yonj2sj@naver.com</t>
+  </si>
+  <si>
+    <t>양은채</t>
+  </si>
+  <si>
+    <t>kimtaejung1053@gmail.com</t>
+  </si>
+  <si>
+    <t>김태정</t>
+  </si>
+  <si>
+    <t>ggwoo02211@gmail.com</t>
+  </si>
+  <si>
+    <t>박건우</t>
+  </si>
+  <si>
+    <t>hytree22@naver.com</t>
+  </si>
+  <si>
+    <t>신하영</t>
+  </si>
+  <si>
+    <t>jjedalee@gmail.com</t>
+  </si>
+  <si>
+    <t>정재은</t>
+  </si>
+  <si>
+    <t>040415kimdh@naver.com</t>
+  </si>
+  <si>
+    <t>jinny8014@naver.com</t>
+  </si>
+  <si>
+    <t>박윤진</t>
+  </si>
+  <si>
+    <t>gksgh2311@naver.com</t>
+  </si>
+  <si>
+    <t>전한호</t>
+  </si>
+  <si>
+    <t>dlwodms5596@naver.com</t>
+  </si>
+  <si>
+    <t>이재은</t>
+  </si>
+  <si>
+    <t>qkrwjdwns0526@gmail.com</t>
+  </si>
+  <si>
+    <t>박정준</t>
+  </si>
+  <si>
+    <t>mukyx00@naver.com</t>
+  </si>
+  <si>
+    <t>엄찬우</t>
+  </si>
+  <si>
+    <t>kuopty2758@gmail.com</t>
+  </si>
+  <si>
+    <t>강채원</t>
+  </si>
+  <si>
+    <t>tnwls03270327@gmail.com</t>
+  </si>
+  <si>
+    <t>권수진</t>
+  </si>
+  <si>
+    <t>qj2qmf@naver.com</t>
+  </si>
+  <si>
+    <t>원주현</t>
+  </si>
+  <si>
+    <t>rkdus0413@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>tjfud05@naver.com</t>
+  </si>
+  <si>
+    <t>박서령</t>
+  </si>
+  <si>
+    <t>lsh0409210@gmail.com</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
+    <t>lelle0514@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>dlguswls0676@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>rkdgodbs7148@naver.com</t>
+  </si>
+  <si>
+    <t>강해윤</t>
   </si>
 </sst>
 </file>
@@ -1879,11 +2017,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD172"/>
+  <dimension ref="A1:AD195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17715,6 +17853,2122 @@
         <v>56</v>
       </c>
     </row>
+    <row r="173" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="2">
+        <v>45196.395812835646</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D173" s="1">
+        <v>20226143</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F173" s="1">
+        <v>3</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T173" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W173" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X173" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y173" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z173" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA173" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB173" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC173" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD173" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="2">
+        <v>45196.399802418979</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D174" s="1">
+        <v>20233804</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F174" s="1">
+        <v>3</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U174" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W174" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X174" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y174" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z174" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA174" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB174" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC174" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD174" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2">
+        <v>45196.437638726857</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D175" s="1">
+        <v>20191614</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F175" s="1">
+        <v>3</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T175" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U175" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V175" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W175" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X175" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y175" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z175" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA175" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB175" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC175" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD175" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="2">
+        <v>45196.454082152777</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D176" s="1">
+        <v>20236742</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F176" s="1">
+        <v>3</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T176" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U176" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W176" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X176" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y176" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z176" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA176" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB176" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD176" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="2">
+        <v>45196.462565092588</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D177" s="1">
+        <v>20235150</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T177" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U177" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V177" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W177" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X177" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y177" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z177" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA177" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB177" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC177" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD177" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="2">
+        <v>45196.479104375001</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D178" s="1">
+        <v>20232817</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F178" s="1">
+        <v>3</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T178" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U178" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V178" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W178" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X178" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y178" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z178" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA178" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB178" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC178" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD178" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2">
+        <v>45196.515990243061</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D179" s="1">
+        <v>20232724</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F179" s="1">
+        <v>3</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T179" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U179" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V179" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W179" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X179" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y179" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z179" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA179" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB179" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC179" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD179" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="2">
+        <v>45196.520165509261</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D180" s="1">
+        <v>20232134</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F180" s="1">
+        <v>3</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T180" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U180" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V180" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W180" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X180" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y180" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z180" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA180" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB180" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC180" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD180" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="2">
+        <v>45196.521597407409</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D181" s="1">
+        <v>20235119</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F181" s="1">
+        <v>3</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T181" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U181" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V181" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W181" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X181" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y181" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z181" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA181" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB181" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC181" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD181" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="2">
+        <v>45196.584216250005</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D182" s="1">
+        <v>20192213</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F182" s="1">
+        <v>3</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q182" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T182" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U182" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V182" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W182" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X182" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y182" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z182" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA182" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB182" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC182" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD182" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="2">
+        <v>45196.590980590277</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D183" s="1">
+        <v>20232842</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F183" s="1">
+        <v>1</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T183" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U183" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V183" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W183" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X183" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y183" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z183" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA183" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB183" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC183" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD183" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="2">
+        <v>45196.594779513893</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D184" s="1">
+        <v>20236631</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F184" s="1">
+        <v>3</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T184" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U184" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V184" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W184" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X184" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y184" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z184" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA184" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB184" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC184" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD184" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="2">
+        <v>45196.597246840276</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D185" s="1">
+        <v>20236129</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F185" s="1">
+        <v>3</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T185" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U185" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V185" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W185" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X185" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y185" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z185" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA185" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB185" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC185" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD185" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="2">
+        <v>45196.610994560186</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D186" s="1">
+        <v>20202547</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F186" s="1">
+        <v>3</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S186" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T186" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U186" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V186" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W186" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X186" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y186" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z186" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA186" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB186" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC186" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD186" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="2">
+        <v>45196.613534201388</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D187" s="1">
+        <v>20232303</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F187" s="1">
+        <v>3</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T187" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U187" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V187" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W187" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X187" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y187" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z187" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA187" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB187" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC187" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD187" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="2">
+        <v>45196.634584756946</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D188" s="1">
+        <v>20192703</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F188" s="1">
+        <v>3</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T188" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U188" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V188" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W188" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X188" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y188" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z188" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA188" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB188" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC188" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD188" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="2">
+        <v>45196.638598078702</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D189" s="1">
+        <v>20202735</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F189" s="1">
+        <v>3</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T189" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U189" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V189" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W189" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X189" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y189" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z189" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA189" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB189" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC189" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD189" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="2">
+        <v>45196.640044247688</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D190" s="1">
+        <v>20236168</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F190" s="1">
+        <v>3</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T190" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U190" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V190" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W190" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X190" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y190" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z190" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA190" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB190" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC190" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD190" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="2">
+        <v>45196.64072649306</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D191" s="1">
+        <v>20233409</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F191" s="1">
+        <v>3</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T191" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U191" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V191" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W191" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X191" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y191" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z191" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA191" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB191" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC191" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD191" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="2">
+        <v>45196.643827233798</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D192" s="1">
+        <v>20233726</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F192" s="1">
+        <v>3</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T192" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U192" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V192" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W192" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X192" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y192" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z192" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA192" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB192" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC192" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD192" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="2">
+        <v>45196.653712245374</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D193" s="1">
+        <v>20202513</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F193" s="1">
+        <v>3</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q193" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R193" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S193" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T193" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U193" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V193" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W193" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X193" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y193" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z193" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA193" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB193" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC193" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD193" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="2">
+        <v>45196.657438101851</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D194" s="1">
+        <v>20171078</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F194" s="1">
+        <v>3</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q194" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R194" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S194" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T194" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U194" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V194" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W194" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X194" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y194" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z194" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA194" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB194" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC194" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD194" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="2">
+        <v>45196.661857951389</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D195" s="1">
+        <v>20181702</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F195" s="1">
+        <v>3</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q195" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R195" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S195" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T195" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U195" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V195" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W195" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y195" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z195" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA195" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB195" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC195" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD195" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/literacy_230925.xlsx
+++ b/data/literacy_230925.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14DB3DC-7504-B041-815C-5A60E7170CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BE321E-1BC9-C84E-88A7-3ECE16E61CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36480" yWindow="600" windowWidth="34020" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5268" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5673" uniqueCount="607">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1744,6 +1744,105 @@
   </si>
   <si>
     <t>강해윤</t>
+  </si>
+  <si>
+    <t>yukuyl0625@naver.com</t>
+  </si>
+  <si>
+    <t>차유결</t>
+  </si>
+  <si>
+    <t>juh0611@naver.com</t>
+  </si>
+  <si>
+    <t>신주희</t>
+  </si>
+  <si>
+    <t>hyeeun7356@naver.com</t>
+  </si>
+  <si>
+    <t>유혜은</t>
+  </si>
+  <si>
+    <t>5542o@naver.com</t>
+  </si>
+  <si>
+    <t>권오준</t>
+  </si>
+  <si>
+    <t>hyunbin7379@gmail.com</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>정현빈</t>
+  </si>
+  <si>
+    <t>thdrkdud456456@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>csk7915@naver.com</t>
+  </si>
+  <si>
+    <t>최선규</t>
+  </si>
+  <si>
+    <t>kswon115@naver.com</t>
+  </si>
+  <si>
+    <t>김시원</t>
+  </si>
+  <si>
+    <t>p51008085@gmail.com</t>
+  </si>
+  <si>
+    <t>박준수</t>
+  </si>
+  <si>
+    <t>kns2266@naver.com</t>
+  </si>
+  <si>
+    <t>사학전공</t>
+  </si>
+  <si>
+    <t>김남석</t>
+  </si>
+  <si>
+    <t>kimcylove@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학전공</t>
+  </si>
+  <si>
+    <t>김채연</t>
+  </si>
+  <si>
+    <t>wldodxp@naver.com</t>
+  </si>
+  <si>
+    <t>박지영</t>
+  </si>
+  <si>
+    <t>smilerina1@naver.com</t>
+  </si>
+  <si>
+    <t>조예린</t>
+  </si>
+  <si>
+    <t>amyson0622@naver.com</t>
+  </si>
+  <si>
+    <t>손진아</t>
+  </si>
+  <si>
+    <t>jkv0125@gmail.com</t>
+  </si>
+  <si>
+    <t>조경빈</t>
   </si>
 </sst>
 </file>
@@ -2017,11 +2116,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD195"/>
+  <dimension ref="A1:AD210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B201" sqref="B201"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19969,6 +20068,1386 @@
         <v>56</v>
       </c>
     </row>
+    <row r="196" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="2">
+        <v>45196.671724085652</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D196" s="1">
+        <v>20231540</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F196" s="1">
+        <v>3</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q196" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R196" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S196" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T196" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U196" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V196" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W196" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X196" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y196" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z196" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA196" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB196" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC196" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD196" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="2">
+        <v>45196.67590199074</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D197" s="1">
+        <v>20221051</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F197" s="1">
+        <v>3</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q197" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R197" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T197" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U197" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V197" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W197" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X197" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y197" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z197" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA197" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB197" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC197" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD197" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="2">
+        <v>45196.67638798611</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D198" s="1">
+        <v>20203824</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F198" s="1">
+        <v>3</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M198" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P198" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q198" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R198" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T198" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U198" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V198" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W198" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X198" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y198" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z198" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA198" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB198" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC198" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD198" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="2">
+        <v>45196.677171435185</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D199" s="1">
+        <v>20226703</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F199" s="1">
+        <v>3</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M199" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R199" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S199" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T199" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U199" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V199" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W199" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X199" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y199" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z199" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA199" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB199" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC199" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD199" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="2">
+        <v>45196.683011388886</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D200" s="1">
+        <v>20233036</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F200" s="1">
+        <v>3</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q200" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R200" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S200" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T200" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U200" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V200" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W200" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X200" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y200" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z200" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA200" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB200" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC200" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD200" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="2">
+        <v>45196.684914791666</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D201" s="1">
+        <v>20222968</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F201" s="1">
+        <v>3</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q201" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R201" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S201" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T201" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U201" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V201" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W201" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X201" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y201" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z201" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA201" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB201" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC201" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD201" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="2">
+        <v>45196.696153819445</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D202" s="1">
+        <v>20182440</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F202" s="1">
+        <v>3</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q202" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R202" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S202" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T202" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U202" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V202" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W202" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X202" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y202" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z202" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA202" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB202" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC202" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD202" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="2">
+        <v>45196.708158078705</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D203" s="1">
+        <v>20232930</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F203" s="1">
+        <v>3</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O203" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P203" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q203" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R203" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S203" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T203" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U203" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V203" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W203" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X203" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y203" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z203" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA203" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB203" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC203" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD203" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="2">
+        <v>45196.723044791666</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D204" s="1">
+        <v>20236726</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F204" s="1">
+        <v>3</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P204" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q204" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R204" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S204" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T204" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U204" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V204" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W204" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X204" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y204" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z204" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA204" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB204" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC204" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD204" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="2">
+        <v>45196.728600127317</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D205" s="1">
+        <v>20201012</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F205" s="1">
+        <v>3</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q205" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R205" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S205" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T205" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U205" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V205" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W205" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X205" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y205" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z205" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA205" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB205" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC205" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD205" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="2">
+        <v>45196.730184849541</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D206" s="1">
+        <v>20212320</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F206" s="1">
+        <v>3</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q206" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R206" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S206" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T206" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U206" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V206" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W206" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X206" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y206" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z206" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA206" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB206" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC206" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD206" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="2">
+        <v>45196.732400682871</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D207" s="1">
+        <v>20212727</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F207" s="1">
+        <v>3</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P207" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q207" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R207" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S207" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T207" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U207" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V207" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W207" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X207" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y207" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z207" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA207" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB207" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC207" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD207" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="2">
+        <v>45196.757576782409</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D208" s="1">
+        <v>20236293</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F208" s="1">
+        <v>3</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q208" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R208" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S208" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T208" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U208" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V208" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W208" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X208" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y208" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z208" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA208" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB208" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC208" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD208" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="2">
+        <v>45196.770697025466</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D209" s="1">
+        <v>20223825</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F209" s="1">
+        <v>3</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P209" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q209" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R209" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T209" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U209" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V209" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W209" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X209" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y209" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z209" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA209" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB209" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC209" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD209" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="2">
+        <v>45196.790256898152</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D210" s="1">
+        <v>20212135</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F210" s="1">
+        <v>3</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q210" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R210" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S210" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T210" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U210" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V210" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W210" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X210" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y210" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z210" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA210" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB210" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC210" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD210" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
